--- a/Projeto2/truth table.xlsx
+++ b/Projeto2/truth table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helder\Documents\GitHub\Circuitos\Projeto2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub\Circuitos\Projeto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15240" windowHeight="7455"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="2955" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -214,20 +214,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,19 +542,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -719,12 +719,12 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
       <c r="F8" s="1">
         <v>1</v>
       </c>
@@ -826,13 +826,13 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -898,12 +898,12 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
       <c r="F16" s="1">
         <v>0</v>
       </c>
@@ -1066,15 +1066,15 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="B23" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -1083,11 +1083,11 @@
       <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -1126,82 +1126,82 @@
       <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>0</v>
-      </c>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="9">
+        <v>0</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <v>1</v>
-      </c>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="9">
+        <v>1</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="A32" s="9">
         <v>2</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
+      <c r="A33" s="9">
         <v>3</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="A34" s="9">
         <v>4</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="A35" s="9">
         <v>5</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="A36" s="9">
         <v>6</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+      <c r="A37" s="9">
         <v>7</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="A38" s="9">
         <v>8</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="9">
         <v>9</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="10" t="s">
         <v>37</v>
       </c>
     </row>
